--- a/time/tom-hall/7-time.xlsx
+++ b/time/tom-hall/7-time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TomHall/Desktop/phase-0/time/tom-hall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TomHall/Library/Containers/com.microsoft.Excel/Data/Desktop/phase-0/time/tom-hall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D44EE70A-A25C-9D4A-8642-A26F89ABD4F8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB0A180-AB5D-8D4E-84F6-434932CA88E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14180" xr2:uid="{398A074C-A235-8649-9B20-4845298C1CEB}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
     <t>Amount ()</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>7.4 Debugging</t>
+  </si>
+  <si>
+    <t>Project Name</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,18 +427,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>7</v>
@@ -446,10 +446,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>6</v>
@@ -457,10 +457,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -468,10 +468,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -479,10 +479,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
